--- a/timeTable.xlsx
+++ b/timeTable.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="296" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="296" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTable" sheetId="1" r:id="rId1"/>
@@ -386,9 +386,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -513,17 +517,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -1094,7 +1102,7 @@
   <dimension ref="E13:M28"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E14" sqref="E14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1357,7 +1365,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1387,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6444,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F46" sqref="F46:F47"/>
     </sheetView>
   </sheetViews>
@@ -14690,6 +14698,18 @@
     <mergeCell ref="B160:B161"/>
     <mergeCell ref="C160:C161"/>
     <mergeCell ref="B158:B159"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="L156:L157"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="H162:H163"/>
+    <mergeCell ref="I162:I163"/>
+    <mergeCell ref="J162:J163"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="L162:L163"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="H158:H159"/>
     <mergeCell ref="T146:T147"/>
     <mergeCell ref="U146:U147"/>
     <mergeCell ref="T148:T149"/>
@@ -14726,6 +14746,20 @@
     <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:C153"/>
     <mergeCell ref="B150:B151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:L153"/>
     <mergeCell ref="T138:T139"/>
     <mergeCell ref="U138:U139"/>
     <mergeCell ref="T140:T141"/>
@@ -14762,6 +14796,16 @@
     <mergeCell ref="B144:B145"/>
     <mergeCell ref="C144:C145"/>
     <mergeCell ref="B142:B143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="L144:L145"/>
+    <mergeCell ref="J140:J141"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="L140:L141"/>
     <mergeCell ref="T130:T131"/>
     <mergeCell ref="U130:U131"/>
     <mergeCell ref="T132:T133"/>
@@ -14798,6 +14842,20 @@
     <mergeCell ref="B136:B137"/>
     <mergeCell ref="C136:C137"/>
     <mergeCell ref="B134:B135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="H134:H135"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="L134:L135"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="L136:L137"/>
     <mergeCell ref="T122:T123"/>
     <mergeCell ref="U122:U123"/>
     <mergeCell ref="T124:T125"/>
@@ -14834,6 +14892,16 @@
     <mergeCell ref="B128:B129"/>
     <mergeCell ref="C128:C129"/>
     <mergeCell ref="B126:B127"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="H128:H129"/>
+    <mergeCell ref="I128:I129"/>
+    <mergeCell ref="J128:J129"/>
+    <mergeCell ref="K128:K129"/>
+    <mergeCell ref="L128:L129"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="L124:L125"/>
     <mergeCell ref="T114:T115"/>
     <mergeCell ref="U114:U115"/>
     <mergeCell ref="T116:T117"/>
@@ -14870,6 +14938,20 @@
     <mergeCell ref="B120:B121"/>
     <mergeCell ref="C120:C121"/>
     <mergeCell ref="B118:B119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="L120:L121"/>
     <mergeCell ref="T106:T107"/>
     <mergeCell ref="U106:U107"/>
     <mergeCell ref="T108:T109"/>
@@ -14906,6 +14988,16 @@
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="B110:B111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="J108:J109"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
     <mergeCell ref="T98:T99"/>
     <mergeCell ref="U98:U99"/>
     <mergeCell ref="T100:T101"/>
@@ -14942,6 +15034,20 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="B102:B103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="G104:G105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="J104:J105"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:L105"/>
     <mergeCell ref="T90:T91"/>
     <mergeCell ref="U90:U91"/>
     <mergeCell ref="T92:T93"/>
@@ -14978,6 +15084,16 @@
     <mergeCell ref="B96:B97"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="B94:B95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
     <mergeCell ref="T82:T83"/>
     <mergeCell ref="U82:U83"/>
     <mergeCell ref="T84:T85"/>
@@ -15014,6 +15130,20 @@
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="B86:B87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="L88:L89"/>
     <mergeCell ref="T74:T75"/>
     <mergeCell ref="U74:U75"/>
     <mergeCell ref="T76:T77"/>
@@ -15050,6 +15180,16 @@
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="C80:C81"/>
     <mergeCell ref="B78:B79"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
     <mergeCell ref="T66:T67"/>
     <mergeCell ref="U66:U67"/>
     <mergeCell ref="T68:T69"/>
@@ -15086,6 +15226,20 @@
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="B70:B71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
     <mergeCell ref="T58:T59"/>
     <mergeCell ref="U58:U59"/>
     <mergeCell ref="T60:T61"/>
@@ -15122,6 +15276,16 @@
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="B62:B63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
     <mergeCell ref="T50:T51"/>
     <mergeCell ref="U50:U51"/>
     <mergeCell ref="T52:T53"/>
@@ -15158,6 +15322,20 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="B54:B55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
     <mergeCell ref="T42:T43"/>
     <mergeCell ref="U42:U43"/>
     <mergeCell ref="T44:T45"/>
@@ -15194,6 +15372,16 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
     <mergeCell ref="T34:T35"/>
     <mergeCell ref="U34:U35"/>
     <mergeCell ref="T36:T37"/>
@@ -15230,6 +15418,20 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
     <mergeCell ref="T26:T27"/>
     <mergeCell ref="U26:U27"/>
     <mergeCell ref="T28:T29"/>
@@ -15266,6 +15468,16 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
     <mergeCell ref="T18:T19"/>
     <mergeCell ref="U18:U19"/>
     <mergeCell ref="T20:T21"/>
@@ -15302,6 +15514,20 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -15330,6 +15556,10 @@
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="S16:S17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -15359,10 +15589,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
@@ -15387,20 +15613,6 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
@@ -15422,13 +15634,6 @@
     <mergeCell ref="J30:J31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="H26:H27"/>
@@ -15440,23 +15645,6 @@
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
@@ -15478,13 +15666,6 @@
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="H42:H43"/>
@@ -15496,23 +15677,6 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="H50:H51"/>
@@ -15534,13 +15698,6 @@
     <mergeCell ref="J62:J63"/>
     <mergeCell ref="K62:K63"/>
     <mergeCell ref="L62:L63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="G58:G59"/>
     <mergeCell ref="H58:H59"/>
@@ -15552,23 +15709,6 @@
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
     <mergeCell ref="F66:F67"/>
     <mergeCell ref="G66:G67"/>
     <mergeCell ref="H66:H67"/>
@@ -15590,13 +15730,6 @@
     <mergeCell ref="J78:J79"/>
     <mergeCell ref="K78:K79"/>
     <mergeCell ref="L78:L79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
     <mergeCell ref="F74:F75"/>
     <mergeCell ref="G74:G75"/>
     <mergeCell ref="H74:H75"/>
@@ -15608,23 +15741,6 @@
     <mergeCell ref="G76:G77"/>
     <mergeCell ref="H76:H77"/>
     <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="L88:L89"/>
     <mergeCell ref="F82:F83"/>
     <mergeCell ref="G82:G83"/>
     <mergeCell ref="H82:H83"/>
@@ -15646,13 +15762,6 @@
     <mergeCell ref="J94:J95"/>
     <mergeCell ref="K94:K95"/>
     <mergeCell ref="L94:L95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="L96:L97"/>
     <mergeCell ref="F90:F91"/>
     <mergeCell ref="G90:G91"/>
     <mergeCell ref="H90:H91"/>
@@ -15664,23 +15773,6 @@
     <mergeCell ref="G92:G93"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="J104:J105"/>
-    <mergeCell ref="K104:K105"/>
-    <mergeCell ref="L104:L105"/>
     <mergeCell ref="F98:F99"/>
     <mergeCell ref="G98:G99"/>
     <mergeCell ref="H98:H99"/>
@@ -15702,13 +15794,6 @@
     <mergeCell ref="J110:J111"/>
     <mergeCell ref="K110:K111"/>
     <mergeCell ref="L110:L111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="L112:L113"/>
     <mergeCell ref="F106:F107"/>
     <mergeCell ref="G106:G107"/>
     <mergeCell ref="H106:H107"/>
@@ -15720,23 +15805,6 @@
     <mergeCell ref="G108:G109"/>
     <mergeCell ref="H108:H109"/>
     <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:J109"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="L120:L121"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="G114:G115"/>
     <mergeCell ref="H114:H115"/>
@@ -15758,13 +15826,6 @@
     <mergeCell ref="J126:J127"/>
     <mergeCell ref="K126:K127"/>
     <mergeCell ref="L126:L127"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="H128:H129"/>
-    <mergeCell ref="I128:I129"/>
-    <mergeCell ref="J128:J129"/>
-    <mergeCell ref="K128:K129"/>
-    <mergeCell ref="L128:L129"/>
     <mergeCell ref="F122:F123"/>
     <mergeCell ref="G122:G123"/>
     <mergeCell ref="H122:H123"/>
@@ -15776,23 +15837,6 @@
     <mergeCell ref="G124:G125"/>
     <mergeCell ref="H124:H125"/>
     <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="L124:L125"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G134:G135"/>
-    <mergeCell ref="H134:H135"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="L134:L135"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="L136:L137"/>
     <mergeCell ref="F130:F131"/>
     <mergeCell ref="G130:G131"/>
     <mergeCell ref="H130:H131"/>
@@ -15814,13 +15858,6 @@
     <mergeCell ref="J142:J143"/>
     <mergeCell ref="K142:K143"/>
     <mergeCell ref="L142:L143"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="L144:L145"/>
     <mergeCell ref="F138:F139"/>
     <mergeCell ref="G138:G139"/>
     <mergeCell ref="H138:H139"/>
@@ -15832,23 +15869,6 @@
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="H140:H141"/>
     <mergeCell ref="I140:I141"/>
-    <mergeCell ref="J140:J141"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="L140:L141"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:L153"/>
     <mergeCell ref="F146:F147"/>
     <mergeCell ref="G146:G147"/>
     <mergeCell ref="H146:H147"/>
@@ -15881,15 +15901,6 @@
     <mergeCell ref="H156:H157"/>
     <mergeCell ref="I156:I157"/>
     <mergeCell ref="J156:J157"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="L156:L157"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="H162:H163"/>
-    <mergeCell ref="I162:I163"/>
-    <mergeCell ref="J162:J163"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="L162:L163"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -15907,9 +15918,6 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="H158:H159"/>
     <mergeCell ref="I158:I159"/>
     <mergeCell ref="J158:J159"/>
     <mergeCell ref="K158:K159"/>
